--- a/RelationsAndTheirDerivations.xlsx
+++ b/RelationsAndTheirDerivations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fec6886388aa33ba/Documenten/UGent stuff/Ghent_PhD/Projects/Modelling/DerivationTableApplications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3480" documentId="8_{6EE6DF8B-7E88-478F-AEB2-2FBABC5EC4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BC30322-8731-4D2D-B2DF-0BE970D6E21B}"/>
+  <xr:revisionPtr revIDLastSave="3486" documentId="8_{6EE6DF8B-7E88-478F-AEB2-2FBABC5EC4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D57A3C33-9A93-457E-A83B-93DD2836D530}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="889" firstSheet="4" activeTab="12" xr2:uid="{5F4A0930-D0D2-49BB-B47B-43423A12F34F}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="889" firstSheet="8" activeTab="12" xr2:uid="{5F4A0930-D0D2-49BB-B47B-43423A12F34F}"/>
   </bookViews>
   <sheets>
     <sheet name="Mutual Entailment" sheetId="2" r:id="rId1"/>
@@ -2442,7 +2442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2745,83 +2745,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45" wrapText="1"/>
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2829,11 +2841,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -2850,21 +2862,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2874,17 +2886,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2892,161 +2898,278 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3078,128 +3201,89 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3207,12 +3291,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3243,84 +3321,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3329,6 +3329,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3336,211 +3339,9 @@
   </cellStyles>
   <dxfs count="163">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3761,6 +3562,222 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -3977,13 +3994,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4189,6 +4199,24 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4432,17 +4460,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -4647,13 +4664,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4881,13 +4891,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5228,10 +5231,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6070,22 +6069,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="277" t="s">
+      <c r="B1" s="259" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="277"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="277"/>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
-      <c r="N1" s="277"/>
-      <c r="O1" s="277"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
@@ -6098,40 +6097,40 @@
       <c r="C3" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="298" t="s">
+      <c r="D3" s="278" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="300" t="s">
+      <c r="E3" s="280" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="302" t="s">
+      <c r="F3" s="282" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="304" t="s">
+      <c r="G3" s="284" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="306" t="s">
+      <c r="H3" s="286" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="288" t="s">
+      <c r="I3" s="268" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="290" t="s">
+      <c r="J3" s="270" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="292" t="s">
+      <c r="K3" s="272" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="294" t="s">
+      <c r="L3" s="274" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="296" t="s">
+      <c r="M3" s="276" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="284" t="s">
+      <c r="N3" s="264" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="286" t="s">
+      <c r="O3" s="266" t="s">
         <v>89</v>
       </c>
       <c r="P3" s="47"/>
@@ -6141,25 +6140,25 @@
         <v>136</v>
       </c>
       <c r="C4" s="102"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="305"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="291"/>
-      <c r="K4" s="293"/>
-      <c r="L4" s="295"/>
-      <c r="M4" s="297"/>
-      <c r="N4" s="285"/>
-      <c r="O4" s="287"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="281"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="285"/>
+      <c r="H4" s="287"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="271"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="275"/>
+      <c r="M4" s="277"/>
+      <c r="N4" s="265"/>
+      <c r="O4" s="267"/>
       <c r="P4" s="48"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="298" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="258"/>
+      <c r="C5" s="299"/>
       <c r="D5" s="103">
         <v>1</v>
       </c>
@@ -6198,10 +6197,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="300" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="260"/>
+      <c r="C6" s="301"/>
       <c r="D6" s="56" t="s">
         <v>149</v>
       </c>
@@ -6240,10 +6239,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="263" t="s">
+      <c r="B7" s="304" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="264"/>
+      <c r="C7" s="305"/>
       <c r="D7" s="103">
         <v>1</v>
       </c>
@@ -6285,10 +6284,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="265" t="s">
+      <c r="B8" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="266"/>
+      <c r="C8" s="307"/>
       <c r="D8" s="56" t="s">
         <v>153</v>
       </c>
@@ -6327,10 +6326,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="261" t="s">
+      <c r="B9" s="302" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="262"/>
+      <c r="C9" s="303"/>
       <c r="D9" s="103">
         <v>1</v>
       </c>
@@ -6372,10 +6371,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="269" t="s">
+      <c r="B10" s="290" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="270"/>
+      <c r="C10" s="291"/>
       <c r="D10" s="56" t="s">
         <v>153</v>
       </c>
@@ -6417,10 +6416,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="267" t="s">
+      <c r="B11" s="288" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="268"/>
+      <c r="C11" s="289"/>
       <c r="D11" s="103">
         <v>1</v>
       </c>
@@ -6459,10 +6458,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="271" t="s">
+      <c r="B12" s="292" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="272"/>
+      <c r="C12" s="293"/>
       <c r="D12" s="56" t="s">
         <v>153</v>
       </c>
@@ -6501,10 +6500,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="273" t="s">
+      <c r="B13" s="294" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="274"/>
+      <c r="C13" s="295"/>
       <c r="D13" s="103">
         <v>1</v>
       </c>
@@ -6546,10 +6545,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="275" t="s">
+      <c r="B14" s="296" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="276"/>
+      <c r="C14" s="297"/>
       <c r="D14" s="56" t="s">
         <v>153</v>
       </c>
@@ -6588,10 +6587,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="278" t="s">
+      <c r="B15" s="260" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="279"/>
+      <c r="C15" s="261"/>
       <c r="D15" s="103">
         <v>1</v>
       </c>
@@ -6633,10 +6632,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="280" t="s">
+      <c r="B16" s="262" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="281"/>
+      <c r="C16" s="263"/>
       <c r="D16" s="119">
         <v>1</v>
       </c>
@@ -6680,40 +6679,40 @@
       <c r="C20" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="241" t="s">
+      <c r="D20" s="227" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="223" t="s">
+      <c r="E20" s="237" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="225" t="s">
+      <c r="F20" s="239" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="227" t="s">
+      <c r="G20" s="241" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="229" t="s">
+      <c r="H20" s="243" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="231" t="s">
+      <c r="I20" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="213" t="s">
+      <c r="J20" s="247" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="215" t="s">
+      <c r="K20" s="249" t="s">
         <v>142</v>
       </c>
-      <c r="L20" s="217" t="s">
+      <c r="L20" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="M20" s="219" t="s">
+      <c r="M20" s="253" t="s">
         <v>146</v>
       </c>
-      <c r="N20" s="221" t="s">
+      <c r="N20" s="255" t="s">
         <v>147</v>
       </c>
-      <c r="O20" s="211" t="s">
+      <c r="O20" s="257" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6722,24 +6721,24 @@
         <v>136</v>
       </c>
       <c r="C21" s="51"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="226"/>
-      <c r="G21" s="228"/>
-      <c r="H21" s="230"/>
-      <c r="I21" s="232"/>
-      <c r="J21" s="214"/>
-      <c r="K21" s="216"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="220"/>
-      <c r="N21" s="222"/>
-      <c r="O21" s="212"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="240"/>
+      <c r="G21" s="242"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="248"/>
+      <c r="K21" s="250"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="254"/>
+      <c r="N21" s="256"/>
+      <c r="O21" s="258"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="253" t="s">
+      <c r="B22" s="229" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="254"/>
+      <c r="C22" s="230"/>
       <c r="D22" s="71">
         <v>1</v>
       </c>
@@ -6778,10 +6777,10 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="282" t="s">
+      <c r="B23" s="231" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="283"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="56" t="s">
         <v>149</v>
       </c>
@@ -6820,10 +6819,10 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="245" t="s">
+      <c r="B24" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="246"/>
+      <c r="C24" s="234"/>
       <c r="D24" s="71">
         <v>1</v>
       </c>
@@ -6865,10 +6864,10 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="243" t="s">
+      <c r="B25" s="235" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="244"/>
+      <c r="C25" s="236"/>
       <c r="D25" s="56" t="s">
         <v>153</v>
       </c>
@@ -6907,10 +6906,10 @@
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="255" t="s">
+      <c r="B26" s="219" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="256"/>
+      <c r="C26" s="220"/>
       <c r="D26" s="71">
         <v>1</v>
       </c>
@@ -6952,10 +6951,10 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="247" t="s">
+      <c r="B27" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="248"/>
+      <c r="C27" s="222"/>
       <c r="D27" s="56" t="s">
         <v>153</v>
       </c>
@@ -6997,10 +6996,10 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="249" t="s">
+      <c r="B28" s="223" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="250"/>
+      <c r="C28" s="224"/>
       <c r="D28" s="71">
         <v>1</v>
       </c>
@@ -7039,10 +7038,10 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="251" t="s">
+      <c r="B29" s="225" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="252"/>
+      <c r="C29" s="226"/>
       <c r="D29" s="56" t="s">
         <v>153</v>
       </c>
@@ -7081,10 +7080,10 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="233" t="s">
+      <c r="B30" s="211" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="234"/>
+      <c r="C30" s="212"/>
       <c r="D30" s="71">
         <v>1</v>
       </c>
@@ -7126,10 +7125,10 @@
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="235" t="s">
+      <c r="B31" s="213" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="236"/>
+      <c r="C31" s="214"/>
       <c r="D31" s="56" t="s">
         <v>153</v>
       </c>
@@ -7168,10 +7167,10 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="239" t="s">
+      <c r="B32" s="215" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="240"/>
+      <c r="C32" s="216"/>
       <c r="D32" s="71">
         <v>1</v>
       </c>
@@ -7213,10 +7212,10 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="237" t="s">
+      <c r="B33" s="217" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="238"/>
+      <c r="C33" s="218"/>
       <c r="D33" s="144">
         <v>1</v>
       </c>
@@ -7264,40 +7263,40 @@
       <c r="C38" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="241" t="s">
+      <c r="D38" s="227" t="s">
         <v>138</v>
       </c>
-      <c r="E38" s="223" t="s">
+      <c r="E38" s="237" t="s">
         <v>139</v>
       </c>
-      <c r="F38" s="225" t="s">
+      <c r="F38" s="239" t="s">
         <v>140</v>
       </c>
-      <c r="G38" s="227" t="s">
+      <c r="G38" s="241" t="s">
         <v>82</v>
       </c>
-      <c r="H38" s="229" t="s">
+      <c r="H38" s="243" t="s">
         <v>143</v>
       </c>
-      <c r="I38" s="231" t="s">
+      <c r="I38" s="245" t="s">
         <v>144</v>
       </c>
-      <c r="J38" s="213" t="s">
+      <c r="J38" s="247" t="s">
         <v>141</v>
       </c>
-      <c r="K38" s="215" t="s">
+      <c r="K38" s="249" t="s">
         <v>142</v>
       </c>
-      <c r="L38" s="217" t="s">
+      <c r="L38" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="M38" s="219" t="s">
+      <c r="M38" s="253" t="s">
         <v>146</v>
       </c>
-      <c r="N38" s="221" t="s">
+      <c r="N38" s="255" t="s">
         <v>147</v>
       </c>
-      <c r="O38" s="211" t="s">
+      <c r="O38" s="257" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7306,24 +7305,24 @@
         <v>136</v>
       </c>
       <c r="C39" s="51"/>
-      <c r="D39" s="242"/>
-      <c r="E39" s="224"/>
-      <c r="F39" s="226"/>
-      <c r="G39" s="228"/>
-      <c r="H39" s="230"/>
-      <c r="I39" s="232"/>
-      <c r="J39" s="214"/>
-      <c r="K39" s="216"/>
-      <c r="L39" s="218"/>
-      <c r="M39" s="220"/>
-      <c r="N39" s="222"/>
-      <c r="O39" s="212"/>
+      <c r="D39" s="228"/>
+      <c r="E39" s="238"/>
+      <c r="F39" s="240"/>
+      <c r="G39" s="242"/>
+      <c r="H39" s="244"/>
+      <c r="I39" s="246"/>
+      <c r="J39" s="248"/>
+      <c r="K39" s="250"/>
+      <c r="L39" s="252"/>
+      <c r="M39" s="254"/>
+      <c r="N39" s="256"/>
+      <c r="O39" s="258"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="253" t="s">
+      <c r="B40" s="229" t="s">
         <v>366</v>
       </c>
-      <c r="C40" s="254"/>
+      <c r="C40" s="230"/>
       <c r="D40" s="71">
         <v>1</v>
       </c>
@@ -7362,10 +7361,10 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="282" t="s">
+      <c r="B41" s="231" t="s">
         <v>367</v>
       </c>
-      <c r="C41" s="283"/>
+      <c r="C41" s="232"/>
       <c r="D41" s="56" t="s">
         <v>149</v>
       </c>
@@ -7404,10 +7403,10 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="245" t="s">
+      <c r="B42" s="233" t="s">
         <v>368</v>
       </c>
-      <c r="C42" s="246"/>
+      <c r="C42" s="234"/>
       <c r="D42" s="71">
         <v>1</v>
       </c>
@@ -7446,10 +7445,10 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="243" t="s">
+      <c r="B43" s="235" t="s">
         <v>369</v>
       </c>
-      <c r="C43" s="244"/>
+      <c r="C43" s="236"/>
       <c r="D43" s="56" t="s">
         <v>153</v>
       </c>
@@ -7488,10 +7487,10 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="255" t="s">
+      <c r="B44" s="219" t="s">
         <v>143</v>
       </c>
-      <c r="C44" s="256"/>
+      <c r="C44" s="220"/>
       <c r="D44" s="71">
         <v>1</v>
       </c>
@@ -7530,10 +7529,10 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="247" t="s">
+      <c r="B45" s="221" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="248"/>
+      <c r="C45" s="222"/>
       <c r="D45" s="56" t="s">
         <v>153</v>
       </c>
@@ -7572,10 +7571,10 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="249" t="s">
+      <c r="B46" s="223" t="s">
         <v>370</v>
       </c>
-      <c r="C46" s="250"/>
+      <c r="C46" s="224"/>
       <c r="D46" s="71">
         <v>1</v>
       </c>
@@ -7614,10 +7613,10 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="251" t="s">
+      <c r="B47" s="225" t="s">
         <v>371</v>
       </c>
-      <c r="C47" s="252"/>
+      <c r="C47" s="226"/>
       <c r="D47" s="56" t="s">
         <v>153</v>
       </c>
@@ -7656,10 +7655,10 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="233" t="s">
+      <c r="B48" s="211" t="s">
         <v>374</v>
       </c>
-      <c r="C48" s="234"/>
+      <c r="C48" s="212"/>
       <c r="D48" s="71">
         <v>1</v>
       </c>
@@ -7698,10 +7697,10 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="235" t="s">
+      <c r="B49" s="213" t="s">
         <v>375</v>
       </c>
-      <c r="C49" s="236"/>
+      <c r="C49" s="214"/>
       <c r="D49" s="56" t="s">
         <v>153</v>
       </c>
@@ -7740,10 +7739,10 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="239" t="s">
+      <c r="B50" s="215" t="s">
         <v>373</v>
       </c>
-      <c r="C50" s="240"/>
+      <c r="C50" s="216"/>
       <c r="D50" s="71">
         <v>1</v>
       </c>
@@ -7782,10 +7781,10 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="237" t="s">
+      <c r="B51" s="217" t="s">
         <v>372</v>
       </c>
-      <c r="C51" s="238"/>
+      <c r="C51" s="218"/>
       <c r="D51" s="144">
         <v>1</v>
       </c>
@@ -7825,29 +7824,40 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="O38:O39"/>
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B15:C15"/>
@@ -7864,40 +7874,29 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7954,40 +7953,40 @@
       <c r="B3" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="312" t="s">
+      <c r="C3" s="338" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="314" t="s">
+      <c r="D3" s="340" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="316" t="s">
+      <c r="E3" s="342" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="318" t="s">
+      <c r="F3" s="344" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="320" t="s">
+      <c r="G3" s="346" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="338" t="s">
+      <c r="H3" s="320" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="340" t="s">
+      <c r="I3" s="322" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="342" t="s">
+      <c r="J3" s="324" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="308" t="s">
+      <c r="K3" s="336" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="308" t="s">
+      <c r="L3" s="336" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="308" t="s">
+      <c r="M3" s="336" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="308" t="s">
+      <c r="N3" s="336" t="s">
         <v>89</v>
       </c>
       <c r="O3" s="47"/>
@@ -7997,25 +7996,25 @@
         <v>136</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="315"/>
-      <c r="E4" s="317"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="321"/>
-      <c r="H4" s="339"/>
-      <c r="I4" s="341"/>
-      <c r="J4" s="343"/>
-      <c r="K4" s="309"/>
-      <c r="L4" s="309"/>
-      <c r="M4" s="309"/>
-      <c r="N4" s="309"/>
+      <c r="C4" s="339"/>
+      <c r="D4" s="341"/>
+      <c r="E4" s="343"/>
+      <c r="F4" s="345"/>
+      <c r="G4" s="347"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="325"/>
+      <c r="K4" s="337"/>
+      <c r="L4" s="337"/>
+      <c r="M4" s="337"/>
+      <c r="N4" s="337"/>
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="328" t="s">
+      <c r="A5" s="310" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="329"/>
+      <c r="B5" s="311"/>
       <c r="C5" s="68" t="s">
         <v>193</v>
       </c>
@@ -8054,10 +8053,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="330" t="s">
+      <c r="A6" s="312" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="331"/>
+      <c r="B6" s="313"/>
       <c r="C6" s="59" t="s">
         <v>191</v>
       </c>
@@ -8096,10 +8095,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="332" t="s">
+      <c r="A7" s="314" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="333"/>
+      <c r="B7" s="315"/>
       <c r="C7" s="68" t="s">
         <v>194</v>
       </c>
@@ -8138,10 +8137,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="334" t="s">
+      <c r="A8" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="335"/>
+      <c r="B8" s="317"/>
       <c r="C8" s="61" t="s">
         <v>192</v>
       </c>
@@ -8180,10 +8179,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="336" t="s">
+      <c r="A9" s="318" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="337"/>
+      <c r="B9" s="319"/>
       <c r="C9" s="68" t="s">
         <v>201</v>
       </c>
@@ -8222,10 +8221,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="344" t="s">
+      <c r="A10" s="326" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="345"/>
+      <c r="B10" s="327"/>
       <c r="C10" s="61" t="s">
         <v>200</v>
       </c>
@@ -8264,10 +8263,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="346" t="s">
+      <c r="A11" s="328" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="347"/>
+      <c r="B11" s="329"/>
       <c r="C11" s="68" t="s">
         <v>202</v>
       </c>
@@ -8306,10 +8305,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="324" t="s">
+      <c r="A12" s="308" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="325"/>
+      <c r="B12" s="309"/>
       <c r="C12" s="61" t="s">
         <v>203</v>
       </c>
@@ -8348,10 +8347,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="324" t="s">
+      <c r="A13" s="308" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="325"/>
+      <c r="B13" s="309"/>
       <c r="C13" s="68" t="s">
         <v>181</v>
       </c>
@@ -8390,10 +8389,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="324" t="s">
+      <c r="A14" s="308" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="325"/>
+      <c r="B14" s="309"/>
       <c r="C14" s="61" t="s">
         <v>187</v>
       </c>
@@ -8432,10 +8431,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="324" t="s">
+      <c r="A15" s="308" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="325"/>
+      <c r="B15" s="309"/>
       <c r="C15" s="60" t="s">
         <v>181</v>
       </c>
@@ -8474,10 +8473,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="324" t="s">
+      <c r="A16" s="308" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="325"/>
+      <c r="B16" s="309"/>
       <c r="C16" s="60" t="s">
         <v>181</v>
       </c>
@@ -8520,40 +8519,40 @@
       <c r="B20" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="326" t="s">
+      <c r="C20" s="330" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="322" t="s">
+      <c r="D20" s="332" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="322" t="s">
+      <c r="E20" s="332" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="322" t="s">
+      <c r="F20" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="322" t="s">
+      <c r="G20" s="332" t="s">
         <v>143</v>
       </c>
-      <c r="H20" s="322" t="s">
+      <c r="H20" s="332" t="s">
         <v>144</v>
       </c>
-      <c r="I20" s="322" t="s">
+      <c r="I20" s="332" t="s">
         <v>141</v>
       </c>
-      <c r="J20" s="322" t="s">
+      <c r="J20" s="332" t="s">
         <v>142</v>
       </c>
-      <c r="K20" s="322" t="s">
+      <c r="K20" s="332" t="s">
         <v>145</v>
       </c>
-      <c r="L20" s="322" t="s">
+      <c r="L20" s="332" t="s">
         <v>146</v>
       </c>
-      <c r="M20" s="322" t="s">
+      <c r="M20" s="332" t="s">
         <v>147</v>
       </c>
-      <c r="N20" s="322" t="s">
+      <c r="N20" s="332" t="s">
         <v>148</v>
       </c>
     </row>
@@ -8562,24 +8561,24 @@
         <v>136</v>
       </c>
       <c r="B21" s="51"/>
-      <c r="C21" s="327"/>
-      <c r="D21" s="323"/>
-      <c r="E21" s="323"/>
-      <c r="F21" s="323"/>
-      <c r="G21" s="323"/>
-      <c r="H21" s="323"/>
-      <c r="I21" s="323"/>
-      <c r="J21" s="323"/>
-      <c r="K21" s="323"/>
-      <c r="L21" s="323"/>
-      <c r="M21" s="323"/>
-      <c r="N21" s="323"/>
+      <c r="C21" s="331"/>
+      <c r="D21" s="333"/>
+      <c r="E21" s="333"/>
+      <c r="F21" s="333"/>
+      <c r="G21" s="333"/>
+      <c r="H21" s="333"/>
+      <c r="I21" s="333"/>
+      <c r="J21" s="333"/>
+      <c r="K21" s="333"/>
+      <c r="L21" s="333"/>
+      <c r="M21" s="333"/>
+      <c r="N21" s="333"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="310" t="s">
+      <c r="A22" s="334" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="311"/>
+      <c r="B22" s="335"/>
       <c r="C22" s="52">
         <v>1</v>
       </c>
@@ -8618,10 +8617,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="310" t="s">
+      <c r="A23" s="334" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="311"/>
+      <c r="B23" s="335"/>
       <c r="C23" t="s">
         <v>149</v>
       </c>
@@ -8660,10 +8659,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="310" t="s">
+      <c r="A24" s="334" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="311"/>
+      <c r="B24" s="335"/>
       <c r="C24" s="52">
         <v>1</v>
       </c>
@@ -8702,10 +8701,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="310" t="s">
+      <c r="A25" s="334" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="311"/>
+      <c r="B25" s="335"/>
       <c r="C25" t="s">
         <v>153</v>
       </c>
@@ -8744,10 +8743,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="310" t="s">
+      <c r="A26" s="334" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="311"/>
+      <c r="B26" s="335"/>
       <c r="C26" s="52">
         <v>1</v>
       </c>
@@ -8786,10 +8785,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="310" t="s">
+      <c r="A27" s="334" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="311"/>
+      <c r="B27" s="335"/>
       <c r="C27" t="s">
         <v>153</v>
       </c>
@@ -8828,10 +8827,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="310" t="s">
+      <c r="A28" s="334" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="311"/>
+      <c r="B28" s="335"/>
       <c r="C28" s="52">
         <v>1</v>
       </c>
@@ -8870,10 +8869,10 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="310" t="s">
+      <c r="A29" s="334" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="311"/>
+      <c r="B29" s="335"/>
       <c r="C29" t="s">
         <v>153</v>
       </c>
@@ -8912,10 +8911,10 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="310" t="s">
+      <c r="A30" s="334" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="311"/>
+      <c r="B30" s="335"/>
       <c r="C30" s="52">
         <v>1</v>
       </c>
@@ -8954,10 +8953,10 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="310" t="s">
+      <c r="A31" s="334" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="311"/>
+      <c r="B31" s="335"/>
       <c r="C31" t="s">
         <v>153</v>
       </c>
@@ -8996,10 +8995,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="310" t="s">
+      <c r="A32" s="334" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="311"/>
+      <c r="B32" s="335"/>
       <c r="C32" s="52">
         <v>1</v>
       </c>
@@ -9038,10 +9037,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="310" t="s">
+      <c r="A33" s="334" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="311"/>
+      <c r="B33" s="335"/>
       <c r="C33" s="52">
         <v>1</v>
       </c>
@@ -9081,39 +9080,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -9130,6 +9096,39 @@
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9161,40 +9160,40 @@
       <c r="J1" s="125" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="298" t="s">
+      <c r="K1" s="278" t="s">
         <v>343</v>
       </c>
-      <c r="L1" s="300" t="s">
+      <c r="L1" s="280" t="s">
         <v>344</v>
       </c>
-      <c r="M1" s="302" t="s">
+      <c r="M1" s="282" t="s">
         <v>345</v>
       </c>
-      <c r="N1" s="304" t="s">
+      <c r="N1" s="284" t="s">
         <v>346</v>
       </c>
-      <c r="O1" s="306" t="s">
+      <c r="O1" s="286" t="s">
         <v>347</v>
       </c>
-      <c r="P1" s="288" t="s">
+      <c r="P1" s="268" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" s="290" t="s">
+      <c r="Q1" s="270" t="s">
         <v>350</v>
       </c>
-      <c r="R1" s="292" t="s">
+      <c r="R1" s="272" t="s">
         <v>349</v>
       </c>
-      <c r="S1" s="294" t="s">
+      <c r="S1" s="274" t="s">
         <v>352</v>
       </c>
-      <c r="T1" s="296" t="s">
+      <c r="T1" s="276" t="s">
         <v>351</v>
       </c>
-      <c r="U1" s="284" t="s">
+      <c r="U1" s="264" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="286" t="s">
+      <c r="V1" s="266" t="s">
         <v>89</v>
       </c>
     </row>
@@ -9203,18 +9202,18 @@
         <v>136</v>
       </c>
       <c r="J2" s="102"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="305"/>
-      <c r="O2" s="307"/>
-      <c r="P2" s="289"/>
-      <c r="Q2" s="291"/>
-      <c r="R2" s="293"/>
-      <c r="S2" s="295"/>
-      <c r="T2" s="297"/>
-      <c r="U2" s="285"/>
-      <c r="V2" s="287"/>
+      <c r="K2" s="279"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="287"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="273"/>
+      <c r="S2" s="275"/>
+      <c r="T2" s="277"/>
+      <c r="U2" s="265"/>
+      <c r="V2" s="267"/>
     </row>
     <row r="3" spans="1:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="348" t="s">
@@ -9233,10 +9232,10 @@
       <c r="F3" s="139" t="s">
         <v>321</v>
       </c>
-      <c r="I3" s="257" t="s">
+      <c r="I3" s="298" t="s">
         <v>333</v>
       </c>
-      <c r="J3" s="258"/>
+      <c r="J3" s="299"/>
       <c r="K3" s="8">
         <v>1</v>
       </c>
@@ -9286,10 +9285,10 @@
       <c r="F4" t="s">
         <v>320</v>
       </c>
-      <c r="I4" s="259" t="s">
+      <c r="I4" s="300" t="s">
         <v>334</v>
       </c>
-      <c r="J4" s="260"/>
+      <c r="J4" s="301"/>
       <c r="K4">
         <v>1</v>
       </c>
@@ -9324,10 +9323,10 @@
       <c r="V4" s="136"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="259" t="s">
+      <c r="A5" s="300" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="260"/>
+      <c r="B5" s="301"/>
       <c r="C5" t="s">
         <v>299</v>
       </c>
@@ -9340,10 +9339,10 @@
       <c r="F5" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="I5" s="259" t="s">
+      <c r="I5" s="300" t="s">
         <v>335</v>
       </c>
-      <c r="J5" s="260"/>
+      <c r="J5" s="301"/>
       <c r="K5" s="8">
         <v>3</v>
       </c>
@@ -9378,10 +9377,10 @@
       <c r="V5" s="92"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="259" t="s">
+      <c r="A6" s="300" t="s">
         <v>313</v>
       </c>
-      <c r="B6" s="260"/>
+      <c r="B6" s="301"/>
       <c r="C6" t="s">
         <v>300</v>
       </c>
@@ -9394,10 +9393,10 @@
       <c r="F6" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="I6" s="263" t="s">
+      <c r="I6" s="304" t="s">
         <v>336</v>
       </c>
-      <c r="J6" s="264"/>
+      <c r="J6" s="305"/>
       <c r="K6">
         <v>9</v>
       </c>
@@ -9427,10 +9426,10 @@
       <c r="V6" s="136"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="263" t="s">
+      <c r="A7" s="304" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="264"/>
+      <c r="B7" s="305"/>
       <c r="C7" t="s">
         <v>301</v>
       </c>
@@ -9443,10 +9442,10 @@
       <c r="F7" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="I7" s="265" t="s">
+      <c r="I7" s="306" t="s">
         <v>337</v>
       </c>
-      <c r="J7" s="266"/>
+      <c r="J7" s="307"/>
       <c r="K7" s="8">
         <v>5</v>
       </c>
@@ -9466,10 +9465,10 @@
       <c r="V7" s="92"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="265" t="s">
+      <c r="A8" s="306" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="266"/>
+      <c r="B8" s="307"/>
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -9482,10 +9481,10 @@
       <c r="F8" s="92" t="s">
         <v>328</v>
       </c>
-      <c r="I8" s="265" t="s">
+      <c r="I8" s="306" t="s">
         <v>338</v>
       </c>
-      <c r="J8" s="266"/>
+      <c r="J8" s="307"/>
       <c r="K8">
         <v>9</v>
       </c>
@@ -9509,10 +9508,10 @@
       <c r="V8" s="92"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="265" t="s">
+      <c r="A9" s="306" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="266"/>
+      <c r="B9" s="307"/>
       <c r="C9" t="s">
         <v>305</v>
       </c>
@@ -9525,10 +9524,10 @@
       <c r="F9" s="92" t="s">
         <v>324</v>
       </c>
-      <c r="I9" s="263" t="s">
+      <c r="I9" s="304" t="s">
         <v>339</v>
       </c>
-      <c r="J9" s="264"/>
+      <c r="J9" s="305"/>
       <c r="K9" s="8">
         <v>7</v>
       </c>
@@ -9548,10 +9547,10 @@
       <c r="V9" s="136"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="263" t="s">
+      <c r="A10" s="304" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="264"/>
+      <c r="B10" s="305"/>
       <c r="C10" t="s">
         <v>306</v>
       </c>
@@ -9564,10 +9563,10 @@
       <c r="F10" s="92" t="s">
         <v>325</v>
       </c>
-      <c r="I10" s="271" t="s">
+      <c r="I10" s="292" t="s">
         <v>340</v>
       </c>
-      <c r="J10" s="272"/>
+      <c r="J10" s="293"/>
       <c r="K10">
         <v>8</v>
       </c>
@@ -9587,10 +9586,10 @@
       <c r="V10" s="136"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="271" t="s">
+      <c r="A11" s="292" t="s">
         <v>295</v>
       </c>
-      <c r="B11" s="272"/>
+      <c r="B11" s="293"/>
       <c r="C11" t="s">
         <v>308</v>
       </c>
@@ -9603,10 +9602,10 @@
       <c r="F11" s="92" t="s">
         <v>326</v>
       </c>
-      <c r="I11" s="273" t="s">
+      <c r="I11" s="294" t="s">
         <v>341</v>
       </c>
-      <c r="J11" s="274"/>
+      <c r="J11" s="295"/>
       <c r="K11" s="8" t="s">
         <v>354</v>
       </c>
@@ -9626,10 +9625,10 @@
       <c r="V11" s="92"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="273" t="s">
+      <c r="A12" s="294" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="274"/>
+      <c r="B12" s="295"/>
       <c r="C12" t="s">
         <v>309</v>
       </c>
@@ -9642,10 +9641,10 @@
       <c r="F12" s="92" t="s">
         <v>332</v>
       </c>
-      <c r="I12" s="275" t="s">
+      <c r="I12" s="296" t="s">
         <v>342</v>
       </c>
-      <c r="J12" s="276"/>
+      <c r="J12" s="297"/>
       <c r="K12">
         <v>10</v>
       </c>
@@ -9667,10 +9666,10 @@
       <c r="V12" s="136"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="275" t="s">
+      <c r="A13" s="296" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="276"/>
+      <c r="B13" s="297"/>
       <c r="C13" t="s">
         <v>317</v>
       </c>
@@ -9683,10 +9682,10 @@
       <c r="F13" s="92" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="278" t="s">
+      <c r="I13" s="260" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="279"/>
+      <c r="J13" s="261"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="Q13" s="8"/>
@@ -9696,10 +9695,10 @@
       <c r="V13" s="92"/>
     </row>
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="278" t="s">
+      <c r="A14" s="260" t="s">
         <v>330</v>
       </c>
-      <c r="B14" s="279"/>
+      <c r="B14" s="261"/>
       <c r="C14" t="s">
         <v>20</v>
       </c>
@@ -9712,10 +9711,10 @@
       <c r="F14" s="92" t="s">
         <v>329</v>
       </c>
-      <c r="I14" s="280" t="s">
+      <c r="I14" s="262" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="281"/>
+      <c r="J14" s="263"/>
       <c r="K14" s="101"/>
       <c r="L14" s="133"/>
       <c r="M14" s="133"/>
@@ -9730,10 +9729,10 @@
       <c r="V14" s="137"/>
     </row>
     <row r="15" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="280" t="s">
+      <c r="A15" s="262" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="281"/>
+      <c r="B15" s="263"/>
       <c r="C15" s="133"/>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -9746,6 +9745,30 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
@@ -9759,30 +9782,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9793,7 +9792,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9806,31 +9805,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="351" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" t="s">
+      <c r="B1" s="351"/>
+      <c r="C1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="308" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="310"/>
+      <c r="B2" s="308"/>
       <c r="C2" t="s">
         <v>378</v>
       </c>
@@ -9848,16 +9847,21 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="310" t="s">
+      <c r="A3" s="308" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="310"/>
+      <c r="B3" s="308"/>
       <c r="G3" t="s">
         <v>388</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+    </row>
     <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C5" t="s">
@@ -9877,7 +9881,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C6" t="s">
@@ -9893,8 +9898,29 @@
         <v>399</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
@@ -9908,7 +9934,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>204</v>
       </c>
       <c r="C13" t="s">
@@ -9916,7 +9943,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
         <v>205</v>
       </c>
     </row>
@@ -9959,149 +9987,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="173"/>
-      <c r="N1" s="170" t="s">
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="170"/>
+      <c r="N1" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="AA1" s="170" t="s">
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="AA1" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="170"/>
-      <c r="AH1" s="170"/>
-      <c r="AI1" s="170"/>
-      <c r="AJ1" s="170"/>
-      <c r="AK1" s="170"/>
-      <c r="AL1" s="170"/>
+      <c r="AB1" s="181"/>
+      <c r="AC1" s="181"/>
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="181"/>
+      <c r="AG1" s="181"/>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="181"/>
+      <c r="AK1" s="181"/>
+      <c r="AL1" s="181"/>
     </row>
     <row r="2" spans="1:38" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="159" t="s">
+      <c r="F2" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="159" t="s">
+      <c r="G2" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="H2" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="159" t="s">
+      <c r="J2" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="159" t="s">
+      <c r="K2" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="159" t="s">
+      <c r="L2" s="158" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="18"/>
       <c r="O2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="163" t="s">
+      <c r="P2" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="165" t="s">
+      <c r="Q2" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="167" t="s">
+      <c r="R2" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="167" t="s">
+      <c r="S2" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="167" t="s">
+      <c r="T2" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="167" t="s">
+      <c r="U2" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="V2" s="167" t="s">
+      <c r="V2" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="167" t="s">
+      <c r="W2" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="167" t="s">
+      <c r="X2" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="159" t="s">
+      <c r="Y2" s="158" t="s">
         <v>20</v>
       </c>
       <c r="AA2" s="18"/>
       <c r="AB2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="163" t="s">
+      <c r="AC2" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="165" t="s">
+      <c r="AD2" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="167" t="s">
+      <c r="AE2" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="167" t="s">
+      <c r="AF2" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="167" t="s">
+      <c r="AG2" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="167" t="s">
+      <c r="AH2" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="AI2" s="167" t="s">
+      <c r="AI2" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" s="167" t="s">
+      <c r="AJ2" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" s="167" t="s">
+      <c r="AK2" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="AL2" s="159" t="s">
+      <c r="AL2" s="158" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10110,50 +10138,50 @@
         <v>46</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
       <c r="N3" s="19" t="s">
         <v>46</v>
       </c>
       <c r="O3" s="17"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="160"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="157"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="157"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="157"/>
+      <c r="W3" s="157"/>
+      <c r="X3" s="157"/>
+      <c r="Y3" s="159"/>
       <c r="AA3" s="19" t="s">
         <v>59</v>
       </c>
       <c r="AB3" s="17"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="168"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
-      <c r="AL3" s="160"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="157"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="157"/>
+      <c r="AK3" s="157"/>
+      <c r="AL3" s="159"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A4" s="176" t="s">
+      <c r="A4" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="177"/>
+      <c r="B4" s="174"/>
       <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
@@ -10181,10 +10209,10 @@
       <c r="K4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="161" t="s">
+      <c r="N4" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="162"/>
+      <c r="O4" s="163"/>
       <c r="P4" s="20">
         <v>0</v>
       </c>
@@ -10212,10 +10240,10 @@
       <c r="X4" s="20">
         <v>8</v>
       </c>
-      <c r="AA4" s="161" t="s">
+      <c r="AA4" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="162"/>
+      <c r="AB4" s="163"/>
       <c r="AC4" s="20">
         <v>0</v>
       </c>
@@ -10245,10 +10273,10 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
@@ -10276,10 +10304,10 @@
       <c r="K5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="156" t="s">
+      <c r="N5" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="157"/>
+      <c r="O5" s="161"/>
       <c r="P5" s="20">
         <v>1</v>
       </c>
@@ -10307,10 +10335,10 @@
       <c r="X5" s="22">
         <v>-1</v>
       </c>
-      <c r="AA5" s="156" t="s">
+      <c r="AA5" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="AB5" s="157"/>
+      <c r="AB5" s="161"/>
       <c r="AC5" s="20">
         <v>1</v>
       </c>
@@ -10340,10 +10368,10 @@
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="175"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
@@ -10371,10 +10399,10 @@
       <c r="K6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="156" t="s">
+      <c r="N6" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="157"/>
+      <c r="O6" s="161"/>
       <c r="P6" s="20">
         <v>2</v>
       </c>
@@ -10402,10 +10430,10 @@
       <c r="X6" s="22">
         <v>-1</v>
       </c>
-      <c r="AA6" s="156" t="s">
+      <c r="AA6" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="AB6" s="157"/>
+      <c r="AB6" s="161"/>
       <c r="AC6" s="20">
         <v>2</v>
       </c>
@@ -10435,10 +10463,10 @@
       </c>
     </row>
     <row r="7" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="175"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
@@ -10466,10 +10494,10 @@
       <c r="K7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="156" t="s">
+      <c r="N7" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="157"/>
+      <c r="O7" s="161"/>
       <c r="P7" s="20">
         <v>3</v>
       </c>
@@ -10497,10 +10525,10 @@
       <c r="X7" s="22">
         <v>-1</v>
       </c>
-      <c r="AA7" s="156" t="s">
+      <c r="AA7" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="AB7" s="157"/>
+      <c r="AB7" s="161"/>
       <c r="AC7" s="20">
         <v>3</v>
       </c>
@@ -10530,10 +10558,10 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="175"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
@@ -10561,10 +10589,10 @@
       <c r="K8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="156" t="s">
+      <c r="N8" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="157"/>
+      <c r="O8" s="161"/>
       <c r="P8" s="20">
         <v>4</v>
       </c>
@@ -10592,10 +10620,10 @@
       <c r="X8" s="22">
         <v>-1</v>
       </c>
-      <c r="AA8" s="156" t="s">
+      <c r="AA8" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="AB8" s="157"/>
+      <c r="AB8" s="161"/>
       <c r="AC8" s="20">
         <v>4</v>
       </c>
@@ -10625,10 +10653,10 @@
       </c>
     </row>
     <row r="9" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="175"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
@@ -10656,10 +10684,10 @@
       <c r="K9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="156" t="s">
+      <c r="N9" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="157"/>
+      <c r="O9" s="161"/>
       <c r="P9" s="20">
         <v>5</v>
       </c>
@@ -10687,10 +10715,10 @@
       <c r="X9" s="22">
         <v>-1</v>
       </c>
-      <c r="AA9" s="156" t="s">
+      <c r="AA9" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="AB9" s="157"/>
+      <c r="AB9" s="161"/>
       <c r="AC9" s="20">
         <v>5</v>
       </c>
@@ -10720,10 +10748,10 @@
       </c>
     </row>
     <row r="10" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="175"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
@@ -10751,10 +10779,10 @@
       <c r="K10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="156" t="s">
+      <c r="N10" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="157"/>
+      <c r="O10" s="161"/>
       <c r="P10" s="20">
         <v>6</v>
       </c>
@@ -10782,10 +10810,10 @@
       <c r="X10" s="23">
         <v>-1</v>
       </c>
-      <c r="AA10" s="156" t="s">
+      <c r="AA10" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" s="157"/>
+      <c r="AB10" s="161"/>
       <c r="AC10" s="20">
         <v>6</v>
       </c>
@@ -10815,10 +10843,10 @@
       </c>
     </row>
     <row r="11" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="175"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
@@ -10846,10 +10874,10 @@
       <c r="K11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="156" t="s">
+      <c r="N11" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="157"/>
+      <c r="O11" s="161"/>
       <c r="P11" s="20">
         <v>7</v>
       </c>
@@ -10877,10 +10905,10 @@
       <c r="X11" s="23">
         <v>-1</v>
       </c>
-      <c r="AA11" s="156" t="s">
+      <c r="AA11" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="AB11" s="157"/>
+      <c r="AB11" s="161"/>
       <c r="AC11" s="20">
         <v>7</v>
       </c>
@@ -10910,10 +10938,10 @@
       </c>
     </row>
     <row r="12" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="175"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
@@ -10941,10 +10969,10 @@
       <c r="K12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="156" t="s">
+      <c r="N12" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="157"/>
+      <c r="O12" s="161"/>
       <c r="P12" s="20">
         <v>8</v>
       </c>
@@ -10972,10 +11000,10 @@
       <c r="X12" s="20">
         <v>8</v>
       </c>
-      <c r="AA12" s="156" t="s">
+      <c r="AA12" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="AB12" s="157"/>
+      <c r="AB12" s="161"/>
       <c r="AC12" s="20">
         <v>8</v>
       </c>
@@ -11005,54 +11033,54 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="175"/>
+      <c r="B13" s="172"/>
     </row>
     <row r="14" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N14" s="169" t="s">
+      <c r="N14" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="O14" s="169"/>
-      <c r="P14" s="158" t="s">
+      <c r="O14" s="180"/>
+      <c r="P14" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="158"/>
+      <c r="Q14" s="179"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="N15" s="18"/>
       <c r="O15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="163" t="s">
+      <c r="P15" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="165" t="s">
+      <c r="Q15" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="R15" s="167" t="s">
+      <c r="R15" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="S15" s="167" t="s">
+      <c r="S15" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="T15" s="167" t="s">
+      <c r="T15" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="167" t="s">
+      <c r="U15" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="V15" s="167" t="s">
+      <c r="V15" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="W15" s="167" t="s">
+      <c r="W15" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="X15" s="167" t="s">
+      <c r="X15" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="Y15" s="159" t="s">
+      <c r="Y15" s="158" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11061,22 +11089,22 @@
         <v>46</v>
       </c>
       <c r="O16" s="17"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="168"/>
-      <c r="S16" s="168"/>
-      <c r="T16" s="168"/>
-      <c r="U16" s="168"/>
-      <c r="V16" s="168"/>
-      <c r="W16" s="168"/>
-      <c r="X16" s="168"/>
-      <c r="Y16" s="160"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="157"/>
+      <c r="T16" s="157"/>
+      <c r="U16" s="157"/>
+      <c r="V16" s="157"/>
+      <c r="W16" s="157"/>
+      <c r="X16" s="157"/>
+      <c r="Y16" s="159"/>
     </row>
     <row r="17" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N17" s="161" t="s">
+      <c r="N17" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="162"/>
+      <c r="O17" s="163"/>
       <c r="P17" s="20">
         <v>0</v>
       </c>
@@ -11106,10 +11134,10 @@
       </c>
     </row>
     <row r="18" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N18" s="156" t="s">
+      <c r="N18" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="O18" s="157"/>
+      <c r="O18" s="161"/>
       <c r="P18" s="20">
         <v>1</v>
       </c>
@@ -11139,10 +11167,10 @@
       </c>
     </row>
     <row r="19" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N19" s="156" t="s">
+      <c r="N19" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="157"/>
+      <c r="O19" s="161"/>
       <c r="P19" s="20">
         <v>2</v>
       </c>
@@ -11172,10 +11200,10 @@
       </c>
     </row>
     <row r="20" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N20" s="156" t="s">
+      <c r="N20" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="O20" s="157"/>
+      <c r="O20" s="161"/>
       <c r="P20" s="20">
         <v>4</v>
       </c>
@@ -11205,10 +11233,10 @@
       </c>
     </row>
     <row r="21" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N21" s="156" t="s">
+      <c r="N21" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="O21" s="157"/>
+      <c r="O21" s="161"/>
       <c r="P21" s="20">
         <v>3</v>
       </c>
@@ -11238,10 +11266,10 @@
       </c>
     </row>
     <row r="22" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N22" s="156" t="s">
+      <c r="N22" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="O22" s="157"/>
+      <c r="O22" s="161"/>
       <c r="P22" s="20">
         <v>6</v>
       </c>
@@ -11271,10 +11299,10 @@
       </c>
     </row>
     <row r="23" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N23" s="156" t="s">
+      <c r="N23" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="O23" s="157"/>
+      <c r="O23" s="161"/>
       <c r="P23" s="20">
         <v>5</v>
       </c>
@@ -11304,10 +11332,10 @@
       </c>
     </row>
     <row r="24" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N24" s="156" t="s">
+      <c r="N24" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="O24" s="157"/>
+      <c r="O24" s="161"/>
       <c r="P24" s="20">
         <v>8</v>
       </c>
@@ -11337,10 +11365,10 @@
       </c>
     </row>
     <row r="25" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N25" s="156" t="s">
+      <c r="N25" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="O25" s="157"/>
+      <c r="O25" s="161"/>
       <c r="P25" s="20">
         <v>7</v>
       </c>
@@ -11375,48 +11403,48 @@
       </c>
     </row>
     <row r="28" spans="14:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N28" s="169" t="s">
+      <c r="N28" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="O28" s="169"/>
-      <c r="P28" s="158" t="s">
+      <c r="O28" s="180"/>
+      <c r="P28" s="179" t="s">
         <v>129</v>
       </c>
-      <c r="Q28" s="158"/>
+      <c r="Q28" s="179"/>
     </row>
     <row r="29" spans="14:25" x14ac:dyDescent="0.3">
       <c r="N29" s="18"/>
       <c r="O29" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="P29" s="163" t="s">
+      <c r="P29" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="Q29" s="165" t="s">
+      <c r="Q29" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="R29" s="167" t="s">
+      <c r="R29" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="S29" s="167" t="s">
+      <c r="S29" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="T29" s="167" t="s">
+      <c r="T29" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="U29" s="167" t="s">
+      <c r="U29" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="V29" s="167" t="s">
+      <c r="V29" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="W29" s="167" t="s">
+      <c r="W29" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="X29" s="167" t="s">
+      <c r="X29" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="Y29" s="159" t="s">
+      <c r="Y29" s="158" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11425,22 +11453,22 @@
         <v>127</v>
       </c>
       <c r="O30" s="17"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="166"/>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="168"/>
-      <c r="V30" s="168"/>
-      <c r="W30" s="168"/>
-      <c r="X30" s="168"/>
-      <c r="Y30" s="160"/>
+      <c r="P30" s="165"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="157"/>
+      <c r="S30" s="157"/>
+      <c r="T30" s="157"/>
+      <c r="U30" s="157"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="157"/>
+      <c r="X30" s="157"/>
+      <c r="Y30" s="159"/>
     </row>
     <row r="31" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N31" s="161" t="s">
+      <c r="N31" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="162"/>
+      <c r="O31" s="163"/>
       <c r="P31" s="20">
         <v>0</v>
       </c>
@@ -11470,10 +11498,10 @@
       </c>
     </row>
     <row r="32" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N32" s="156" t="s">
+      <c r="N32" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="157"/>
+      <c r="O32" s="161"/>
       <c r="P32" s="20">
         <v>1</v>
       </c>
@@ -11503,10 +11531,10 @@
       </c>
     </row>
     <row r="33" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N33" s="156" t="s">
+      <c r="N33" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="157"/>
+      <c r="O33" s="161"/>
       <c r="P33" s="20">
         <v>2</v>
       </c>
@@ -11536,10 +11564,10 @@
       </c>
     </row>
     <row r="34" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N34" s="156" t="s">
+      <c r="N34" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="O34" s="157"/>
+      <c r="O34" s="161"/>
       <c r="P34" s="20">
         <v>3</v>
       </c>
@@ -11569,10 +11597,10 @@
       </c>
     </row>
     <row r="35" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N35" s="156" t="s">
+      <c r="N35" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="157"/>
+      <c r="O35" s="161"/>
       <c r="P35" s="20">
         <v>4</v>
       </c>
@@ -11602,10 +11630,10 @@
       </c>
     </row>
     <row r="36" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N36" s="156" t="s">
+      <c r="N36" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="O36" s="157"/>
+      <c r="O36" s="161"/>
       <c r="P36" s="20">
         <v>5</v>
       </c>
@@ -11635,10 +11663,10 @@
       </c>
     </row>
     <row r="37" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N37" s="156" t="s">
+      <c r="N37" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="O37" s="157"/>
+      <c r="O37" s="161"/>
       <c r="P37" s="20">
         <v>6</v>
       </c>
@@ -11668,10 +11696,10 @@
       </c>
     </row>
     <row r="38" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N38" s="156" t="s">
+      <c r="N38" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="O38" s="157"/>
+      <c r="O38" s="161"/>
       <c r="P38" s="20">
         <v>7</v>
       </c>
@@ -11701,10 +11729,10 @@
       </c>
     </row>
     <row r="39" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N39" s="156" t="s">
+      <c r="N39" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="O39" s="157"/>
+      <c r="O39" s="161"/>
       <c r="P39" s="20">
         <v>8</v>
       </c>
@@ -11739,10 +11767,10 @@
       </c>
     </row>
     <row r="42" spans="14:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N42" s="158" t="s">
+      <c r="N42" s="179" t="s">
         <v>133</v>
       </c>
-      <c r="O42" s="158"/>
+      <c r="O42" s="179"/>
       <c r="P42" t="s">
         <v>134</v>
       </c>
@@ -11752,34 +11780,34 @@
       <c r="O43" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="P43" s="163" t="s">
+      <c r="P43" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="Q43" s="165" t="s">
+      <c r="Q43" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="R43" s="167" t="s">
+      <c r="R43" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="S43" s="167" t="s">
+      <c r="S43" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="T43" s="167" t="s">
+      <c r="T43" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="U43" s="167" t="s">
+      <c r="U43" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="V43" s="167" t="s">
+      <c r="V43" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="W43" s="167" t="s">
+      <c r="W43" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="X43" s="167" t="s">
+      <c r="X43" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="Y43" s="159" t="s">
+      <c r="Y43" s="158" t="s">
         <v>20</v>
       </c>
     </row>
@@ -11788,22 +11816,22 @@
         <v>46</v>
       </c>
       <c r="O44" s="17"/>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="166"/>
-      <c r="R44" s="168"/>
-      <c r="S44" s="168"/>
-      <c r="T44" s="168"/>
-      <c r="U44" s="168"/>
-      <c r="V44" s="168"/>
-      <c r="W44" s="168"/>
-      <c r="X44" s="168"/>
-      <c r="Y44" s="160"/>
+      <c r="P44" s="165"/>
+      <c r="Q44" s="167"/>
+      <c r="R44" s="157"/>
+      <c r="S44" s="157"/>
+      <c r="T44" s="157"/>
+      <c r="U44" s="157"/>
+      <c r="V44" s="157"/>
+      <c r="W44" s="157"/>
+      <c r="X44" s="157"/>
+      <c r="Y44" s="159"/>
     </row>
     <row r="45" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N45" s="161" t="s">
+      <c r="N45" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="162"/>
+      <c r="O45" s="163"/>
       <c r="P45" s="20">
         <v>0</v>
       </c>
@@ -11833,10 +11861,10 @@
       </c>
     </row>
     <row r="46" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N46" s="156" t="s">
+      <c r="N46" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="O46" s="157"/>
+      <c r="O46" s="161"/>
       <c r="P46" s="20">
         <v>1</v>
       </c>
@@ -11866,10 +11894,10 @@
       </c>
     </row>
     <row r="47" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N47" s="156" t="s">
+      <c r="N47" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="O47" s="157"/>
+      <c r="O47" s="161"/>
       <c r="P47" s="20">
         <v>2</v>
       </c>
@@ -11899,10 +11927,10 @@
       </c>
     </row>
     <row r="48" spans="14:25" x14ac:dyDescent="0.3">
-      <c r="N48" s="156" t="s">
+      <c r="N48" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="O48" s="157"/>
+      <c r="O48" s="161"/>
       <c r="P48" s="20">
         <v>4</v>
       </c>
@@ -11932,10 +11960,10 @@
       </c>
     </row>
     <row r="49" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N49" s="156" t="s">
+      <c r="N49" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="O49" s="157"/>
+      <c r="O49" s="161"/>
       <c r="P49" s="20">
         <v>3</v>
       </c>
@@ -11965,10 +11993,10 @@
       </c>
     </row>
     <row r="50" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N50" s="156" t="s">
+      <c r="N50" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="O50" s="157"/>
+      <c r="O50" s="161"/>
       <c r="P50" s="20">
         <v>6</v>
       </c>
@@ -11998,10 +12026,10 @@
       </c>
     </row>
     <row r="51" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N51" s="156" t="s">
+      <c r="N51" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="O51" s="157"/>
+      <c r="O51" s="161"/>
       <c r="P51" s="20">
         <v>5</v>
       </c>
@@ -12031,10 +12059,10 @@
       </c>
     </row>
     <row r="52" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N52" s="156" t="s">
+      <c r="N52" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="O52" s="157"/>
+      <c r="O52" s="161"/>
       <c r="P52" s="20">
         <v>8</v>
       </c>
@@ -12064,10 +12092,10 @@
       </c>
     </row>
     <row r="53" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N53" s="156" t="s">
+      <c r="N53" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="O53" s="157"/>
+      <c r="O53" s="161"/>
       <c r="P53" s="20">
         <v>7</v>
       </c>
@@ -12098,22 +12126,89 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:Y30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="N1:Y1"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
@@ -12138,89 +12233,22 @@
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="N1:Y1"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AA1:AL1"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:Y30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12251,89 +12279,89 @@
       <c r="A1" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="172"/>
-      <c r="K1" s="172"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="172"/>
-      <c r="O1" s="172"/>
-      <c r="P1" s="172"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="172"/>
-      <c r="U1" s="173"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="170"/>
     </row>
     <row r="2" spans="1:21" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82"/>
       <c r="B2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="190" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="188" t="s">
+      <c r="D2" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="194" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="190" t="s">
+      <c r="F2" s="194" t="s">
         <v>251</v>
       </c>
-      <c r="G2" s="190" t="s">
+      <c r="G2" s="194" t="s">
         <v>250</v>
       </c>
-      <c r="H2" s="190" t="s">
+      <c r="H2" s="194" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="190" t="s">
+      <c r="I2" s="194" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="190" t="s">
+      <c r="J2" s="194" t="s">
         <v>254</v>
       </c>
-      <c r="K2" s="190" t="s">
+      <c r="K2" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="192" t="s">
+      <c r="L2" s="182" t="s">
         <v>246</v>
       </c>
-      <c r="M2" s="192" t="s">
+      <c r="M2" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="N2" s="192" t="s">
+      <c r="N2" s="182" t="s">
         <v>257</v>
       </c>
-      <c r="O2" s="192" t="s">
+      <c r="O2" s="182" t="s">
         <v>258</v>
       </c>
-      <c r="P2" s="192" t="s">
+      <c r="P2" s="182" t="s">
         <v>260</v>
       </c>
-      <c r="Q2" s="192" t="s">
+      <c r="Q2" s="182" t="s">
         <v>259</v>
       </c>
-      <c r="R2" s="192" t="s">
+      <c r="R2" s="182" t="s">
         <v>261</v>
       </c>
-      <c r="S2" s="192" t="s">
+      <c r="S2" s="182" t="s">
         <v>262</v>
       </c>
-      <c r="T2" s="192" t="s">
+      <c r="T2" s="182" t="s">
         <v>263</v>
       </c>
-      <c r="U2" s="192" t="s">
+      <c r="U2" s="182" t="s">
         <v>264</v>
       </c>
     </row>
@@ -12342,31 +12370,31 @@
         <v>46</v>
       </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="194"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
@@ -12405,10 +12433,10 @@
       <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="186" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="183"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
@@ -12447,10 +12475,10 @@
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="186" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="183"/>
+      <c r="B6" s="187"/>
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
@@ -12489,10 +12517,10 @@
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="186" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="183"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
@@ -12531,10 +12559,10 @@
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="186" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="183"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
@@ -12573,10 +12601,10 @@
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="186" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="183"/>
+      <c r="B9" s="187"/>
       <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
@@ -12615,10 +12643,10 @@
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="183"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
@@ -12657,10 +12685,10 @@
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="183"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
@@ -12699,10 +12727,10 @@
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="186" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="183"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
@@ -12803,13 +12831,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -12826,22 +12863,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12866,61 +12894,61 @@
       <c r="C2" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="197" t="s">
+      <c r="D2" s="201" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="202" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="195" t="s">
+      <c r="F2" s="197" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="195" t="s">
+      <c r="G2" s="197" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="197" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="195" t="s">
+      <c r="I2" s="197" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="195" t="s">
+      <c r="J2" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="K2" s="195" t="s">
+      <c r="K2" s="197" t="s">
         <v>254</v>
       </c>
-      <c r="L2" s="195" t="s">
+      <c r="L2" s="197" t="s">
         <v>255</v>
       </c>
-      <c r="M2" s="195" t="s">
+      <c r="M2" s="197" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="195" t="s">
+      <c r="N2" s="197" t="s">
         <v>256</v>
       </c>
-      <c r="O2" s="195" t="s">
+      <c r="O2" s="197" t="s">
         <v>280</v>
       </c>
-      <c r="P2" s="195" t="s">
+      <c r="P2" s="197" t="s">
         <v>281</v>
       </c>
-      <c r="Q2" s="195" t="s">
+      <c r="Q2" s="197" t="s">
         <v>260</v>
       </c>
-      <c r="R2" s="195" t="s">
+      <c r="R2" s="197" t="s">
         <v>282</v>
       </c>
-      <c r="S2" s="195" t="s">
+      <c r="S2" s="197" t="s">
         <v>261</v>
       </c>
-      <c r="T2" s="195" t="s">
+      <c r="T2" s="197" t="s">
         <v>262</v>
       </c>
-      <c r="U2" s="195" t="s">
+      <c r="U2" s="197" t="s">
         <v>263</v>
       </c>
-      <c r="V2" s="199" t="s">
+      <c r="V2" s="195" t="s">
         <v>264</v>
       </c>
     </row>
@@ -12929,31 +12957,31 @@
         <v>46</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="200"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="196"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="194"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="20">
         <v>0</v>
       </c>
@@ -13013,10 +13041,10 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="186" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="183"/>
+      <c r="C5" s="187"/>
       <c r="D5" s="20">
         <v>1</v>
       </c>
@@ -13076,10 +13104,10 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="186" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="183"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="20">
         <v>2</v>
       </c>
@@ -13139,10 +13167,10 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="183"/>
+      <c r="C7" s="187"/>
       <c r="D7" s="20">
         <v>3</v>
       </c>
@@ -13202,10 +13230,10 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="183"/>
+      <c r="C8" s="187"/>
       <c r="D8" s="20">
         <v>4</v>
       </c>
@@ -13265,10 +13293,10 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="183"/>
+      <c r="C9" s="187"/>
       <c r="D9" s="20">
         <v>5</v>
       </c>
@@ -13328,10 +13356,10 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="183"/>
+      <c r="C10" s="187"/>
       <c r="D10" s="20">
         <v>6</v>
       </c>
@@ -13391,10 +13419,10 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="183"/>
+      <c r="C11" s="187"/>
       <c r="D11" s="20">
         <v>7</v>
       </c>
@@ -13454,10 +13482,10 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="186" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="183"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="20">
         <v>8</v>
       </c>
@@ -13517,7 +13545,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="200" t="s">
         <v>228</v>
       </c>
       <c r="C13" s="185"/>
@@ -13580,7 +13608,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="200" t="s">
         <v>242</v>
       </c>
       <c r="C14" s="185"/>
@@ -13643,7 +13671,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="196" t="s">
+      <c r="B15" s="200" t="s">
         <v>275</v>
       </c>
       <c r="C15" s="185"/>
@@ -13706,7 +13734,7 @@
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="196" t="s">
+      <c r="B16" s="200" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="185"/>
@@ -13769,7 +13797,7 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="200" t="s">
         <v>244</v>
       </c>
       <c r="C17" s="185"/>
@@ -13832,7 +13860,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="196" t="s">
+      <c r="B18" s="200" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="185"/>
@@ -13895,7 +13923,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="196" t="s">
+      <c r="B19" s="200" t="s">
         <v>241</v>
       </c>
       <c r="C19" s="185"/>
@@ -13958,7 +13986,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="196" t="s">
+      <c r="B20" s="200" t="s">
         <v>240</v>
       </c>
       <c r="C20" s="185"/>
@@ -14021,7 +14049,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="200" t="s">
         <v>239</v>
       </c>
       <c r="C21" s="185"/>
@@ -14084,10 +14112,10 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="201" t="s">
+      <c r="B22" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="202"/>
+      <c r="C22" s="199"/>
       <c r="D22" s="86">
         <v>18</v>
       </c>
@@ -14166,6 +14194,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="B22:C22"/>
@@ -14182,28 +14232,6 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:V22">
     <cfRule type="containsText" dxfId="162" priority="2" operator="containsText" text="18">
@@ -14273,7 +14301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="containsText" dxfId="142" priority="19" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="143" priority="19" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14312,78 +14340,78 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="203" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
     </row>
     <row r="2" spans="2:22" ht="51.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="141"/>
       <c r="C2" s="142" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="197" t="s">
+      <c r="D2" s="201" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="202" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="195" t="s">
+      <c r="F2" s="197" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="195" t="s">
+      <c r="G2" s="197" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="197" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="195" t="s">
+      <c r="I2" s="197" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="195" t="s">
+      <c r="J2" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="K2" s="195" t="s">
+      <c r="K2" s="197" t="s">
         <v>254</v>
       </c>
-      <c r="L2" s="195" t="s">
+      <c r="L2" s="197" t="s">
         <v>255</v>
       </c>
-      <c r="M2" s="195" t="s">
+      <c r="M2" s="197" t="s">
         <v>246</v>
       </c>
-      <c r="N2" s="195" t="s">
+      <c r="N2" s="197" t="s">
         <v>256</v>
       </c>
-      <c r="O2" s="195" t="s">
+      <c r="O2" s="197" t="s">
         <v>280</v>
       </c>
-      <c r="P2" s="195" t="s">
+      <c r="P2" s="197" t="s">
         <v>281</v>
       </c>
-      <c r="Q2" s="195" t="s">
+      <c r="Q2" s="197" t="s">
         <v>260</v>
       </c>
-      <c r="R2" s="195" t="s">
+      <c r="R2" s="197" t="s">
         <v>282</v>
       </c>
-      <c r="S2" s="195" t="s">
+      <c r="S2" s="197" t="s">
         <v>261</v>
       </c>
-      <c r="T2" s="195" t="s">
+      <c r="T2" s="197" t="s">
         <v>262</v>
       </c>
-      <c r="U2" s="195" t="s">
+      <c r="U2" s="197" t="s">
         <v>263</v>
       </c>
-      <c r="V2" s="199" t="s">
+      <c r="V2" s="195" t="s">
         <v>264</v>
       </c>
     </row>
@@ -14392,31 +14420,31 @@
         <v>46</v>
       </c>
       <c r="C3" s="100"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="200"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="196"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="194"/>
+      <c r="C4" s="189"/>
       <c r="D4" s="20">
         <v>0</v>
       </c>
@@ -14476,10 +14504,10 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="186" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="183"/>
+      <c r="C5" s="187"/>
       <c r="D5" s="20">
         <v>1</v>
       </c>
@@ -14539,10 +14567,10 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="182" t="s">
+      <c r="B6" s="186" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="183"/>
+      <c r="C6" s="187"/>
       <c r="D6" s="20">
         <v>2</v>
       </c>
@@ -14602,10 +14630,10 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="183"/>
+      <c r="C7" s="187"/>
       <c r="D7" s="20">
         <v>3</v>
       </c>
@@ -14665,10 +14693,10 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="183"/>
+      <c r="C8" s="187"/>
       <c r="D8" s="20">
         <v>4</v>
       </c>
@@ -14728,10 +14756,10 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="183"/>
+      <c r="C9" s="187"/>
       <c r="D9" s="20">
         <v>5</v>
       </c>
@@ -14791,10 +14819,10 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="183"/>
+      <c r="C10" s="187"/>
       <c r="D10" s="20">
         <v>6</v>
       </c>
@@ -14854,10 +14882,10 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="183"/>
+      <c r="C11" s="187"/>
       <c r="D11" s="20">
         <v>7</v>
       </c>
@@ -14917,10 +14945,10 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="182" t="s">
+      <c r="B12" s="186" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="183"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="20">
         <v>8</v>
       </c>
@@ -14980,7 +15008,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="200" t="s">
         <v>228</v>
       </c>
       <c r="C13" s="185"/>
@@ -15043,7 +15071,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="200" t="s">
         <v>242</v>
       </c>
       <c r="C14" s="185"/>
@@ -15106,7 +15134,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="196" t="s">
+      <c r="B15" s="200" t="s">
         <v>275</v>
       </c>
       <c r="C15" s="185"/>
@@ -15169,7 +15197,7 @@
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="196" t="s">
+      <c r="B16" s="200" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="185"/>
@@ -15232,7 +15260,7 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="200" t="s">
         <v>244</v>
       </c>
       <c r="C17" s="185"/>
@@ -15295,7 +15323,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="196" t="s">
+      <c r="B18" s="200" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="185"/>
@@ -15358,7 +15386,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="196" t="s">
+      <c r="B19" s="200" t="s">
         <v>241</v>
       </c>
       <c r="C19" s="185"/>
@@ -15421,7 +15449,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="196" t="s">
+      <c r="B20" s="200" t="s">
         <v>240</v>
       </c>
       <c r="C20" s="185"/>
@@ -15484,7 +15512,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="200" t="s">
         <v>239</v>
       </c>
       <c r="C21" s="185"/>
@@ -15547,10 +15575,10 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="203" t="s">
+      <c r="B22" s="205" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="204"/>
+      <c r="C22" s="206"/>
       <c r="D22" s="128">
         <v>18</v>
       </c>
@@ -15611,6 +15639,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
@@ -15627,86 +15678,63 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:C22">
-    <cfRule type="containsText" dxfId="140" priority="67" operator="containsText" text="18">
+    <cfRule type="containsText" dxfId="141" priority="67" operator="containsText" text="18">
       <formula>NOT(ISERROR(SEARCH("18",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="68" operator="containsText" text="17">
+    <cfRule type="containsText" dxfId="140" priority="68" operator="containsText" text="17">
       <formula>NOT(ISERROR(SEARCH("17",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="69" operator="containsText" text="16">
+    <cfRule type="containsText" dxfId="139" priority="69" operator="containsText" text="16">
       <formula>NOT(ISERROR(SEARCH("16",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="70" operator="containsText" text="15">
+    <cfRule type="containsText" dxfId="138" priority="70" operator="containsText" text="15">
       <formula>NOT(ISERROR(SEARCH("15",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="71" operator="containsText" text="14">
+    <cfRule type="containsText" dxfId="137" priority="71" operator="containsText" text="14">
       <formula>NOT(ISERROR(SEARCH("14",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="72" operator="containsText" text="13">
+    <cfRule type="containsText" dxfId="136" priority="72" operator="containsText" text="13">
       <formula>NOT(ISERROR(SEARCH("13",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="73" operator="containsText" text="12">
+    <cfRule type="containsText" dxfId="135" priority="73" operator="containsText" text="12">
       <formula>NOT(ISERROR(SEARCH("12",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="74" operator="containsText" text="11">
+    <cfRule type="containsText" dxfId="134" priority="74" operator="containsText" text="11">
       <formula>NOT(ISERROR(SEARCH("11",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="75" operator="containsText" text="10">
+    <cfRule type="containsText" dxfId="133" priority="75" operator="containsText" text="10">
       <formula>NOT(ISERROR(SEARCH("10",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="76" operator="containsText" text="9">
+    <cfRule type="containsText" dxfId="132" priority="76" operator="containsText" text="9">
       <formula>NOT(ISERROR(SEARCH("9",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="77" operator="containsText" text="8">
+    <cfRule type="containsText" dxfId="131" priority="77" operator="containsText" text="8">
       <formula>NOT(ISERROR(SEARCH("8",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="78" operator="containsText" text="7">
+    <cfRule type="containsText" dxfId="130" priority="78" operator="containsText" text="7">
       <formula>NOT(ISERROR(SEARCH("7",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="79" operator="containsText" text="6">
+    <cfRule type="containsText" dxfId="129" priority="79" operator="containsText" text="6">
       <formula>NOT(ISERROR(SEARCH("6",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="80" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="128" priority="80" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="81" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="127" priority="81" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="82" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="126" priority="82" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="83" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="125" priority="83" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="84" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="124" priority="84" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="85" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="123" priority="85" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",B2)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -15719,61 +15747,61 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:V3">
-    <cfRule type="containsText" dxfId="120" priority="25" operator="containsText" text="18">
+    <cfRule type="containsText" dxfId="122" priority="25" operator="containsText" text="18">
       <formula>NOT(ISERROR(SEARCH("18",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="26" operator="containsText" text="17">
+    <cfRule type="containsText" dxfId="121" priority="26" operator="containsText" text="17">
       <formula>NOT(ISERROR(SEARCH("17",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="27" operator="containsText" text="16">
+    <cfRule type="containsText" dxfId="120" priority="27" operator="containsText" text="16">
       <formula>NOT(ISERROR(SEARCH("16",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="28" operator="containsText" text="15">
+    <cfRule type="containsText" dxfId="119" priority="28" operator="containsText" text="15">
       <formula>NOT(ISERROR(SEARCH("15",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="29" operator="containsText" text="14">
+    <cfRule type="containsText" dxfId="118" priority="29" operator="containsText" text="14">
       <formula>NOT(ISERROR(SEARCH("14",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="30" operator="containsText" text="13">
+    <cfRule type="containsText" dxfId="117" priority="30" operator="containsText" text="13">
       <formula>NOT(ISERROR(SEARCH("13",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="31" operator="containsText" text="12">
+    <cfRule type="containsText" dxfId="116" priority="31" operator="containsText" text="12">
       <formula>NOT(ISERROR(SEARCH("12",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="32" operator="containsText" text="11">
+    <cfRule type="containsText" dxfId="115" priority="32" operator="containsText" text="11">
       <formula>NOT(ISERROR(SEARCH("11",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="33" operator="containsText" text="10">
+    <cfRule type="containsText" dxfId="114" priority="33" operator="containsText" text="10">
       <formula>NOT(ISERROR(SEARCH("10",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="34" operator="containsText" text="9">
+    <cfRule type="containsText" dxfId="113" priority="34" operator="containsText" text="9">
       <formula>NOT(ISERROR(SEARCH("9",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="35" operator="containsText" text="8">
+    <cfRule type="containsText" dxfId="112" priority="35" operator="containsText" text="8">
       <formula>NOT(ISERROR(SEARCH("8",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="36" operator="containsText" text="7">
+    <cfRule type="containsText" dxfId="111" priority="36" operator="containsText" text="7">
       <formula>NOT(ISERROR(SEARCH("7",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="37" operator="containsText" text="6">
+    <cfRule type="containsText" dxfId="110" priority="37" operator="containsText" text="6">
       <formula>NOT(ISERROR(SEARCH("6",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="38" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="109" priority="38" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="39" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="108" priority="39" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="40" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="107" priority="40" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="41" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="106" priority="41" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="42" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="105" priority="42" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="43" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="104" priority="43" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D2)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="44">
@@ -15786,67 +15814,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:V22">
-    <cfRule type="containsText" dxfId="100" priority="2" operator="containsText" text="12">
+    <cfRule type="containsText" dxfId="103" priority="2" operator="containsText" text="12">
       <formula>NOT(ISERROR(SEARCH("12",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="7">
+    <cfRule type="containsText" dxfId="102" priority="3" operator="containsText" text="7">
       <formula>NOT(ISERROR(SEARCH("7",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="4" operator="containsText" text="8">
+    <cfRule type="containsText" dxfId="101" priority="4" operator="containsText" text="8">
       <formula>NOT(ISERROR(SEARCH("8",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="5" operator="containsText" text="9">
+    <cfRule type="containsText" dxfId="100" priority="5" operator="containsText" text="9">
       <formula>NOT(ISERROR(SEARCH("9",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="6" operator="containsText" text="10">
+    <cfRule type="containsText" dxfId="99" priority="6" operator="containsText" text="10">
       <formula>NOT(ISERROR(SEARCH("10",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="7" operator="containsText" text="11">
+    <cfRule type="containsText" dxfId="98" priority="7" operator="containsText" text="11">
       <formula>NOT(ISERROR(SEARCH("11",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="8" operator="containsText" text="17">
+    <cfRule type="containsText" dxfId="97" priority="8" operator="containsText" text="17">
       <formula>NOT(ISERROR(SEARCH("17",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="9" operator="containsText" text="16">
+    <cfRule type="containsText" dxfId="96" priority="9" operator="containsText" text="16">
       <formula>NOT(ISERROR(SEARCH("16",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="10" operator="containsText" text="15">
+    <cfRule type="containsText" dxfId="95" priority="10" operator="containsText" text="15">
       <formula>NOT(ISERROR(SEARCH("15",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="14">
+    <cfRule type="containsText" dxfId="94" priority="11" operator="containsText" text="14">
       <formula>NOT(ISERROR(SEARCH("14",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="13">
+    <cfRule type="containsText" dxfId="93" priority="12" operator="containsText" text="13">
       <formula>NOT(ISERROR(SEARCH("13",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="18">
+    <cfRule type="containsText" dxfId="92" priority="13" operator="containsText" text="18">
       <formula>NOT(ISERROR(SEARCH("18",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="14" operator="containsText" text="11">
+    <cfRule type="containsText" dxfId="91" priority="14" operator="containsText" text="11">
       <formula>NOT(ISERROR(SEARCH("11",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="15" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="16" operator="containsText" text="18">
+    <cfRule type="containsText" dxfId="89" priority="16" operator="containsText" text="18">
       <formula>NOT(ISERROR(SEARCH("18",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="17" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="88" priority="17" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="18" operator="containsText" text="6">
+    <cfRule type="containsText" dxfId="87" priority="18" operator="containsText" text="6">
       <formula>NOT(ISERROR(SEARCH("6",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="19" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="86" priority="19" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="20" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="85" priority="20" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="21" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="84" priority="21" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",D4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="22" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="83" priority="22" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15921,61 +15949,61 @@
       <c r="B1" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="190" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="188" t="s">
+      <c r="D1" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="190" t="s">
+      <c r="E1" s="194" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="190" t="s">
+      <c r="F1" s="194" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="190" t="s">
+      <c r="G1" s="194" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="190" t="s">
+      <c r="H1" s="194" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="190" t="s">
+      <c r="I1" s="194" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="190" t="s">
+      <c r="J1" s="194" t="s">
         <v>254</v>
       </c>
-      <c r="K1" s="190" t="s">
+      <c r="K1" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="L1" s="192" t="s">
+      <c r="L1" s="182" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="192" t="s">
+      <c r="M1" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="N1" s="192" t="s">
+      <c r="N1" s="182" t="s">
         <v>280</v>
       </c>
-      <c r="O1" s="192" t="s">
+      <c r="O1" s="182" t="s">
         <v>281</v>
       </c>
-      <c r="P1" s="192" t="s">
+      <c r="P1" s="182" t="s">
         <v>260</v>
       </c>
-      <c r="Q1" s="192" t="s">
+      <c r="Q1" s="182" t="s">
         <v>282</v>
       </c>
-      <c r="R1" s="192" t="s">
+      <c r="R1" s="182" t="s">
         <v>261</v>
       </c>
-      <c r="S1" s="192" t="s">
+      <c r="S1" s="182" t="s">
         <v>262</v>
       </c>
-      <c r="T1" s="192" t="s">
+      <c r="T1" s="182" t="s">
         <v>263</v>
       </c>
-      <c r="U1" s="207" t="s">
+      <c r="U1" s="208" t="s">
         <v>264</v>
       </c>
     </row>
@@ -15984,31 +16012,31 @@
         <v>46</v>
       </c>
       <c r="B2" s="100"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="200"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="196"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="194"/>
+      <c r="B3" s="189"/>
       <c r="C3" s="20">
         <v>0</v>
       </c>
@@ -16039,10 +16067,10 @@
       <c r="U3" s="134"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="186" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="183"/>
+      <c r="B4" s="187"/>
       <c r="C4" s="20">
         <v>1</v>
       </c>
@@ -16073,10 +16101,10 @@
       <c r="U4" s="92"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="186" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="183"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="20">
         <v>2</v>
       </c>
@@ -16107,10 +16135,10 @@
       <c r="U5" s="92"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="183"/>
+      <c r="B6" s="187"/>
       <c r="C6" s="20">
         <v>4</v>
       </c>
@@ -16141,10 +16169,10 @@
       <c r="U6" s="92"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="183"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="20">
         <v>3</v>
       </c>
@@ -16175,10 +16203,10 @@
       <c r="U7" s="92"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="B8" s="183"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="20">
         <v>6</v>
       </c>
@@ -16209,10 +16237,10 @@
       <c r="U8" s="92"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="183"/>
+      <c r="B9" s="187"/>
       <c r="C9" s="20">
         <v>5</v>
       </c>
@@ -16243,10 +16271,10 @@
       <c r="U9" s="92"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="183"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="20">
         <v>8</v>
       </c>
@@ -16277,10 +16305,10 @@
       <c r="U10" s="92"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="186" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="183"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="20">
         <v>7</v>
       </c>
@@ -16374,10 +16402,10 @@
       <c r="U20" s="92"/>
     </row>
     <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="208" t="s">
+      <c r="A21" s="207" t="s">
         <v>265</v>
       </c>
-      <c r="B21" s="204"/>
+      <c r="B21" s="206"/>
       <c r="C21" s="133"/>
       <c r="D21" s="133"/>
       <c r="E21" s="133"/>
@@ -16400,14 +16428,20 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
@@ -16424,77 +16458,71 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B21">
-    <cfRule type="containsText" dxfId="78" priority="2" operator="containsText" text="18">
+    <cfRule type="containsText" dxfId="79" priority="2" operator="containsText" text="18">
       <formula>NOT(ISERROR(SEARCH("18",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="17">
+    <cfRule type="containsText" dxfId="78" priority="3" operator="containsText" text="17">
       <formula>NOT(ISERROR(SEARCH("17",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="16">
+    <cfRule type="containsText" dxfId="77" priority="4" operator="containsText" text="16">
       <formula>NOT(ISERROR(SEARCH("16",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="5" operator="containsText" text="15">
+    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="15">
       <formula>NOT(ISERROR(SEARCH("15",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="6" operator="containsText" text="14">
+    <cfRule type="containsText" dxfId="75" priority="6" operator="containsText" text="14">
       <formula>NOT(ISERROR(SEARCH("14",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="7" operator="containsText" text="13">
+    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="13">
       <formula>NOT(ISERROR(SEARCH("13",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="8" operator="containsText" text="12">
+    <cfRule type="containsText" dxfId="73" priority="8" operator="containsText" text="12">
       <formula>NOT(ISERROR(SEARCH("12",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="9" operator="containsText" text="11">
+    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="11">
       <formula>NOT(ISERROR(SEARCH("11",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="10" operator="containsText" text="10">
+    <cfRule type="containsText" dxfId="71" priority="10" operator="containsText" text="10">
       <formula>NOT(ISERROR(SEARCH("10",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="9">
+    <cfRule type="containsText" dxfId="70" priority="11" operator="containsText" text="9">
       <formula>NOT(ISERROR(SEARCH("9",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="8">
+    <cfRule type="containsText" dxfId="69" priority="12" operator="containsText" text="8">
       <formula>NOT(ISERROR(SEARCH("8",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="7">
+    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="7">
       <formula>NOT(ISERROR(SEARCH("7",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="14" operator="containsText" text="6">
+    <cfRule type="containsText" dxfId="67" priority="14" operator="containsText" text="6">
       <formula>NOT(ISERROR(SEARCH("6",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="15" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="66" priority="15" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="16" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="65" priority="16" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="18" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="63" priority="18" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="19" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="20" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="61" priority="20" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="21">
@@ -16507,61 +16535,61 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:U2">
-    <cfRule type="containsText" dxfId="58" priority="23" operator="containsText" text="18">
+    <cfRule type="containsText" dxfId="60" priority="23" operator="containsText" text="18">
       <formula>NOT(ISERROR(SEARCH("18",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="24" operator="containsText" text="17">
+    <cfRule type="containsText" dxfId="59" priority="24" operator="containsText" text="17">
       <formula>NOT(ISERROR(SEARCH("17",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="25" operator="containsText" text="16">
+    <cfRule type="containsText" dxfId="58" priority="25" operator="containsText" text="16">
       <formula>NOT(ISERROR(SEARCH("16",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="26" operator="containsText" text="15">
+    <cfRule type="containsText" dxfId="57" priority="26" operator="containsText" text="15">
       <formula>NOT(ISERROR(SEARCH("15",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="27" operator="containsText" text="14">
+    <cfRule type="containsText" dxfId="56" priority="27" operator="containsText" text="14">
       <formula>NOT(ISERROR(SEARCH("14",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="28" operator="containsText" text="13">
+    <cfRule type="containsText" dxfId="55" priority="28" operator="containsText" text="13">
       <formula>NOT(ISERROR(SEARCH("13",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="29" operator="containsText" text="12">
+    <cfRule type="containsText" dxfId="54" priority="29" operator="containsText" text="12">
       <formula>NOT(ISERROR(SEARCH("12",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="30" operator="containsText" text="11">
+    <cfRule type="containsText" dxfId="53" priority="30" operator="containsText" text="11">
       <formula>NOT(ISERROR(SEARCH("11",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="10">
+    <cfRule type="containsText" dxfId="52" priority="31" operator="containsText" text="10">
       <formula>NOT(ISERROR(SEARCH("10",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="32" operator="containsText" text="9">
+    <cfRule type="containsText" dxfId="51" priority="32" operator="containsText" text="9">
       <formula>NOT(ISERROR(SEARCH("9",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="33" operator="containsText" text="8">
+    <cfRule type="containsText" dxfId="50" priority="33" operator="containsText" text="8">
       <formula>NOT(ISERROR(SEARCH("8",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="34" operator="containsText" text="7">
+    <cfRule type="containsText" dxfId="49" priority="34" operator="containsText" text="7">
       <formula>NOT(ISERROR(SEARCH("7",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="35" operator="containsText" text="6">
+    <cfRule type="containsText" dxfId="48" priority="35" operator="containsText" text="6">
       <formula>NOT(ISERROR(SEARCH("6",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="36" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="47" priority="36" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="45" priority="38" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="44" priority="39" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="43" priority="40" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",C1)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -16646,61 +16674,61 @@
       <c r="B2" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="190" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="188" t="s">
+      <c r="D2" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="194" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="190" t="s">
+      <c r="F2" s="194" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="190" t="s">
+      <c r="G2" s="194" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="190" t="s">
+      <c r="H2" s="194" t="s">
         <v>278</v>
       </c>
-      <c r="I2" s="190" t="s">
+      <c r="I2" s="194" t="s">
         <v>279</v>
       </c>
-      <c r="J2" s="190" t="s">
+      <c r="J2" s="194" t="s">
         <v>254</v>
       </c>
-      <c r="K2" s="190" t="s">
+      <c r="K2" s="194" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="192" t="s">
+      <c r="L2" s="182" t="s">
         <v>246</v>
       </c>
-      <c r="M2" s="192" t="s">
+      <c r="M2" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="N2" s="192" t="s">
+      <c r="N2" s="182" t="s">
         <v>280</v>
       </c>
-      <c r="O2" s="192" t="s">
+      <c r="O2" s="182" t="s">
         <v>281</v>
       </c>
-      <c r="P2" s="192" t="s">
+      <c r="P2" s="182" t="s">
         <v>260</v>
       </c>
-      <c r="Q2" s="192" t="s">
+      <c r="Q2" s="182" t="s">
         <v>282</v>
       </c>
-      <c r="R2" s="192" t="s">
+      <c r="R2" s="182" t="s">
         <v>261</v>
       </c>
-      <c r="S2" s="192" t="s">
+      <c r="S2" s="182" t="s">
         <v>262</v>
       </c>
-      <c r="T2" s="192" t="s">
+      <c r="T2" s="182" t="s">
         <v>263</v>
       </c>
-      <c r="U2" s="207" t="s">
+      <c r="U2" s="208" t="s">
         <v>264</v>
       </c>
     </row>
@@ -16709,31 +16737,31 @@
         <v>46</v>
       </c>
       <c r="B3" s="100"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="200"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="196"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="188" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="194"/>
+      <c r="B4" s="189"/>
       <c r="C4" s="20">
         <v>0</v>
       </c>
@@ -16793,10 +16821,10 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="186" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="183"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="20">
         <v>1</v>
       </c>
@@ -16826,10 +16854,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="186" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="183"/>
+      <c r="B6" s="187"/>
       <c r="C6" s="20">
         <v>2</v>
       </c>
@@ -16859,10 +16887,10 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="186" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="183"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="20">
         <v>4</v>
       </c>
@@ -16892,10 +16920,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="186" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="183"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="20">
         <v>3</v>
       </c>
@@ -16925,10 +16953,10 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="186" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="183"/>
+      <c r="B9" s="187"/>
       <c r="C9" s="20">
         <v>6</v>
       </c>
@@ -16958,10 +16986,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="186" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="183"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="20">
         <v>5</v>
       </c>
@@ -16994,10 +17022,10 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="183"/>
+      <c r="B11" s="187"/>
       <c r="C11" s="20">
         <v>8</v>
       </c>
@@ -17027,10 +17055,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="186" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="183"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="20">
         <v>7</v>
       </c>
@@ -17171,7 +17199,7 @@
       <c r="A22" s="209" t="s">
         <v>265</v>
       </c>
-      <c r="B22" s="202"/>
+      <c r="B22" s="199"/>
       <c r="C22" s="20">
         <v>17</v>
       </c>
@@ -17182,6 +17210,35 @@
     <row r="23" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
@@ -17191,92 +17248,63 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B22">
-    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="18">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="18">
       <formula>NOT(ISERROR(SEARCH("18",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="24" operator="containsText" text="17">
+    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="17">
       <formula>NOT(ISERROR(SEARCH("17",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="16">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="16">
       <formula>NOT(ISERROR(SEARCH("16",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="26" operator="containsText" text="15">
+    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="15">
       <formula>NOT(ISERROR(SEARCH("15",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="14">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="14">
       <formula>NOT(ISERROR(SEARCH("14",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="13">
+    <cfRule type="containsText" dxfId="34" priority="28" operator="containsText" text="13">
       <formula>NOT(ISERROR(SEARCH("13",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="12">
+    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="12">
       <formula>NOT(ISERROR(SEARCH("12",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="11">
+    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="11">
       <formula>NOT(ISERROR(SEARCH("11",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="10">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="10">
       <formula>NOT(ISERROR(SEARCH("10",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="9">
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="9">
       <formula>NOT(ISERROR(SEARCH("9",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="8">
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="8">
       <formula>NOT(ISERROR(SEARCH("8",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="34" operator="containsText" text="7">
+    <cfRule type="containsText" dxfId="28" priority="34" operator="containsText" text="7">
       <formula>NOT(ISERROR(SEARCH("7",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="6">
+    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="6">
       <formula>NOT(ISERROR(SEARCH("6",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="36" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="26" priority="36" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="37" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="25" priority="37" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="38" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="24" priority="38" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="23" priority="39" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="40" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="22" priority="40" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="41" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="21" priority="41" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",A2)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -17289,61 +17317,61 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:U3">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="18">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="18">
       <formula>NOT(ISERROR(SEARCH("18",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="17">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="17">
       <formula>NOT(ISERROR(SEARCH("17",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="16">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="16">
       <formula>NOT(ISERROR(SEARCH("16",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="15">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="15">
       <formula>NOT(ISERROR(SEARCH("15",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="14">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="14">
       <formula>NOT(ISERROR(SEARCH("14",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="13">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="13">
       <formula>NOT(ISERROR(SEARCH("13",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="12">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="12">
       <formula>NOT(ISERROR(SEARCH("12",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="11">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="11">
       <formula>NOT(ISERROR(SEARCH("11",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="10">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="10">
       <formula>NOT(ISERROR(SEARCH("10",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="9">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="9">
       <formula>NOT(ISERROR(SEARCH("9",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="8">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="8">
       <formula>NOT(ISERROR(SEARCH("8",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="7">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="7">
       <formula>NOT(ISERROR(SEARCH("7",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="6">
+    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="6">
       <formula>NOT(ISERROR(SEARCH("6",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="5">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH("5",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="4">
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH("4",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="3">
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="2">
+    <cfRule type="containsText" dxfId="4" priority="18" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH("2",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="1">
+    <cfRule type="containsText" dxfId="3" priority="19" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH("1",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="20" operator="containsText" text="0">
+    <cfRule type="containsText" dxfId="2" priority="20" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",C2)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="21">
